--- a/public/import/template/导入模板_计量单位.xlsx
+++ b/public/import/template/导入模板_计量单位.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="18052" windowHeight="8655"/>
   </bookViews>
   <sheets>
-    <sheet name="用户工站权限" sheetId="1" r:id="rId1"/>
+    <sheet name="导入计量单位" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,6 +36,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -1251,7 +1256,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
